--- a/data/trans_dic/P40_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P40_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.6720341256559526</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5798439664115813</v>
+        <v>0.5798439664115814</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6332699047665857</v>
@@ -697,7 +697,7 @@
         <v>0.7291026472607526</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.6215156649935853</v>
+        <v>0.6215156649935855</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6820793324181641</v>
+        <v>0.6781503780516902</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7682568123473512</v>
+        <v>0.7686446109984355</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7686014989223149</v>
+        <v>0.7683702859849498</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6288257864772852</v>
+        <v>0.6254173299713894</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5450424437126071</v>
+        <v>0.5425944973167325</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6167259490815112</v>
+        <v>0.6123945415439519</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.64351379094873</v>
+        <v>0.6407299252103265</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5460560301714616</v>
+        <v>0.5450390448940743</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6079817862253273</v>
+        <v>0.6083027967964366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6981845787050406</v>
+        <v>0.6938210012598266</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.710234836110921</v>
+        <v>0.7102175386954089</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.594532154614787</v>
+        <v>0.5937850070264512</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7576719043853825</v>
+        <v>0.756255851411968</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8194907381734626</v>
+        <v>0.8209142553496354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8162699491709301</v>
+        <v>0.8163844321022021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7158202946361248</v>
+        <v>0.7153879283108556</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6108469862553281</v>
+        <v>0.6088798145199869</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6725395680427887</v>
+        <v>0.6732656010224126</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6984495059822532</v>
+        <v>0.6965909754777503</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6160874873776188</v>
+        <v>0.6170346115847853</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6564089435898867</v>
+        <v>0.6575188086575456</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.739540371115624</v>
+        <v>0.7367361623721961</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7480195875131042</v>
+        <v>0.7476418650039992</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6498122473683745</v>
+        <v>0.6471816685694928</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8627398844528141</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8022720772952675</v>
+        <v>0.8022720772952676</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7343516529219246</v>
@@ -833,7 +833,7 @@
         <v>0.814164730423689</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7387935390636596</v>
+        <v>0.7387935390636594</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8208555568718551</v>
+        <v>0.8201735827770059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8068875137407894</v>
+        <v>0.8085308986929132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8380255586980917</v>
+        <v>0.839242259670981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7762794195548007</v>
+        <v>0.7755208263440023</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.709147479753213</v>
+        <v>0.7044626757625018</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6977656762682933</v>
+        <v>0.6952585445514344</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7402490854680904</v>
+        <v>0.7426409487483546</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6630477286999543</v>
+        <v>0.659422675802104</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7715958525760973</v>
+        <v>0.770733942345424</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7573517887551022</v>
+        <v>0.7561484649699733</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7962147684633951</v>
+        <v>0.7933205882500874</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7209722711913822</v>
+        <v>0.720004639959245</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8646618267811873</v>
+        <v>0.8646357484299603</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8575678018618026</v>
+        <v>0.8563569819593285</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8836493981352084</v>
+        <v>0.8848377716682271</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8273467144457475</v>
+        <v>0.8260143322457133</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7616342698368647</v>
+        <v>0.7601490587656089</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7544726958085974</v>
+        <v>0.751816833904379</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7960224798571059</v>
+        <v>0.7981831405322423</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7077853492062229</v>
+        <v>0.7070276948521536</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.8073403596581202</v>
+        <v>0.806176013874044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7955477522498501</v>
+        <v>0.794102457057451</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8313844488832789</v>
+        <v>0.8311180299028438</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7555214178659118</v>
+        <v>0.7558501729643338</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.7931948576651124</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7784195980095566</v>
+        <v>0.7784195980095567</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.8424482072027065</v>
@@ -969,7 +969,7 @@
         <v>0.8282981559615208</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8082592895602593</v>
+        <v>0.8082592895602595</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8618784239849777</v>
+        <v>0.8609899883450466</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8093923320374191</v>
+        <v>0.8081042414740971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8367958676689324</v>
+        <v>0.8368277064303146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8146930988527361</v>
+        <v>0.8141255819174994</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7722030286683528</v>
+        <v>0.7721467975660198</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7705188740954627</v>
+        <v>0.7724524120836201</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7643603615022352</v>
+        <v>0.7655385165144412</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7571403425593682</v>
+        <v>0.7550704801447375</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8262406597722162</v>
+        <v>0.8256021948568436</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7995010020838228</v>
+        <v>0.7991885429341202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8085557012347108</v>
+        <v>0.8075681643863916</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7924984850809759</v>
+        <v>0.7929883248589912</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8982481456678589</v>
+        <v>0.8995554316779141</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8628148832797707</v>
+        <v>0.8618011689133337</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8836306801852588</v>
+        <v>0.8835560064608969</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8594404330559086</v>
+        <v>0.8590900796941567</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8227496002022677</v>
+        <v>0.8233644497366392</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8274043722145721</v>
+        <v>0.828755614856554</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8218089415871447</v>
+        <v>0.8244611298623749</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8000324758534948</v>
+        <v>0.797876588966238</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8582030714823515</v>
+        <v>0.8580314899347383</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8368486028144814</v>
+        <v>0.8367716758744296</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8469598310455931</v>
+        <v>0.8477420017009036</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8248643779340222</v>
+        <v>0.8238817743428031</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8330350327313213</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8129847948043545</v>
+        <v>0.8129847948043546</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.861834468788222</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8677573663332547</v>
+        <v>0.867610089350358</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8544845190287514</v>
+        <v>0.8540675711774651</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.835020568966651</v>
+        <v>0.8381277890453993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8477660468514425</v>
+        <v>0.8458740300614467</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7696061571738471</v>
+        <v>0.7634001544534222</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7814314927833965</v>
+        <v>0.7814432752403596</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7911657066867629</v>
+        <v>0.7943132198598711</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7859426608318596</v>
+        <v>0.7888091455802778</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8371301421817727</v>
+        <v>0.8378204257908141</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8308280120400904</v>
+        <v>0.831034184971766</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8297753471893622</v>
+        <v>0.8256445766351825</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8261493085395578</v>
+        <v>0.8261078785199464</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9263860601046632</v>
+        <v>0.9262913886048231</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9110986879506791</v>
+        <v>0.9130957668993914</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8983815556571157</v>
+        <v>0.9002709255180273</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8923158925344291</v>
+        <v>0.8883805610109887</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8535713456310852</v>
+        <v>0.8525636994474599</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8545217159946797</v>
+        <v>0.8561936460130568</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8651094170051206</v>
+        <v>0.8674046422490695</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8321264639947551</v>
+        <v>0.8334712455756579</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8871995073671601</v>
+        <v>0.8868914288758512</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.878908998145812</v>
+        <v>0.8756513577458577</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8755776094723039</v>
+        <v>0.8730285733980684</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8586600450951398</v>
+        <v>0.8573265093048552</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.7488910782406726</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7249469160403399</v>
+        <v>0.72494691604034</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7793155646252732</v>
@@ -1241,7 +1241,7 @@
         <v>0.7935283145936362</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7678377311002521</v>
+        <v>0.7678377311002522</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8290333401287221</v>
+        <v>0.8289530452427714</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8157619112350564</v>
+        <v>0.8156311586609067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8273761494382247</v>
+        <v>0.8268197902408113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8004556022602521</v>
+        <v>0.7996943358241559</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7036976253802308</v>
+        <v>0.7024068928046455</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.716382841019489</v>
+        <v>0.7150917626047264</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7331487967254076</v>
+        <v>0.7340206299803108</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7121716708441661</v>
+        <v>0.711718972086536</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7698504277940686</v>
+        <v>0.7695792818745545</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7697787208468403</v>
+        <v>0.7690051387604944</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.782739164784241</v>
+        <v>0.7823688680966115</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.759201281725043</v>
+        <v>0.7584650985393556</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8544271511716607</v>
+        <v>0.8537336204692414</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8448432743178508</v>
+        <v>0.8435587341424776</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8523970439261671</v>
+        <v>0.8524803622612575</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8258720896913176</v>
+        <v>0.8254707996435111</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7340200566699583</v>
+        <v>0.7345189483524734</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7452577220305973</v>
+        <v>0.7461636139462574</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7645445360327475</v>
+        <v>0.7649224560036049</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.738377456772629</v>
+        <v>0.7369603731411194</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7895900150764473</v>
+        <v>0.7894928163166611</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7904945539803829</v>
+        <v>0.7893456291396923</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8032087121557848</v>
+        <v>0.8033113075959103</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7764948136435635</v>
+        <v>0.7771438644126468</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>398431</v>
+        <v>396135</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>787290</v>
+        <v>787687</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>859807</v>
+        <v>859548</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>313620</v>
+        <v>311920</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>502711</v>
+        <v>500453</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>686260</v>
+        <v>681440</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>802886</v>
+        <v>799413</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>340510</v>
+        <v>339875</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>915909</v>
+        <v>916392</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1492385</v>
+        <v>1483058</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1680646</v>
+        <v>1680605</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>667255</v>
+        <v>666417</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>442587</v>
+        <v>441760</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>839793</v>
+        <v>841252</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>913132</v>
+        <v>913260</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>357007</v>
+        <v>356792</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>563404</v>
+        <v>561590</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>748366</v>
+        <v>749174</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>871428</v>
+        <v>869109</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>384180</v>
+        <v>384770</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>988863</v>
+        <v>990535</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1580784</v>
+        <v>1574790</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1770057</v>
+        <v>1769163</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>729297</v>
+        <v>726345</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>883975</v>
+        <v>883241</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>777357</v>
+        <v>778940</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>759898</v>
+        <v>761001</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>745335</v>
+        <v>744606</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>748682</v>
+        <v>743736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>760030</v>
+        <v>757299</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>741059</v>
+        <v>743453</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>739861</v>
+        <v>735816</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1645539</v>
+        <v>1643701</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1554567</v>
+        <v>1552097</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1519071</v>
+        <v>1513549</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>1496728</v>
+        <v>1494720</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>931150</v>
+        <v>931122</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>826183</v>
+        <v>825016</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>801269</v>
+        <v>802346</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>794366</v>
+        <v>793087</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>804095</v>
+        <v>802527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>821797</v>
+        <v>818904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>796893</v>
+        <v>799056</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>789782</v>
+        <v>788936</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1721770</v>
+        <v>1719286</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1632969</v>
+        <v>1630002</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1586170</v>
+        <v>1585662</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>1568452</v>
+        <v>1569134</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>966678</v>
+        <v>965681</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>710143</v>
+        <v>709013</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>684129</v>
+        <v>684155</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>852559</v>
+        <v>851965</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>767523</v>
+        <v>767468</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>669363</v>
+        <v>671043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>583244</v>
+        <v>584143</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>793212</v>
+        <v>791044</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1747940</v>
+        <v>1746590</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1396004</v>
+        <v>1395458</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1278009</v>
+        <v>1276448</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1659588</v>
+        <v>1660614</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1007470</v>
+        <v>1008936</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>757015</v>
+        <v>756125</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>722419</v>
+        <v>722358</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>899386</v>
+        <v>899020</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>817764</v>
+        <v>818375</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>718780</v>
+        <v>719954</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>627080</v>
+        <v>629104</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>838148</v>
+        <v>835889</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1815558</v>
+        <v>1815195</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1461216</v>
+        <v>1461082</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1338711</v>
+        <v>1339947</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1727366</v>
+        <v>1725308</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>387297</v>
+        <v>387231</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>426591</v>
+        <v>426383</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>420961</v>
+        <v>422527</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>827359</v>
+        <v>825513</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>262557</v>
+        <v>260440</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>350739</v>
+        <v>350745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>383500</v>
+        <v>385026</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>713833</v>
+        <v>716437</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>659221</v>
+        <v>659764</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>787691</v>
+        <v>787887</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>820532</v>
+        <v>816447</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1556614</v>
+        <v>1556536</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>413464</v>
+        <v>413421</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>454855</v>
+        <v>455852</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>452903</v>
+        <v>453855</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>870837</v>
+        <v>866996</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>291203</v>
+        <v>290859</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>383545</v>
+        <v>384296</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>419343</v>
+        <v>420455</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>755780</v>
+        <v>757001</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>698649</v>
+        <v>698407</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>833276</v>
+        <v>830188</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>865824</v>
+        <v>863303</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1617870</v>
+        <v>1615357</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2676906</v>
+        <v>2676647</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2744869</v>
+        <v>2744429</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2769332</v>
+        <v>2767470</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2786613</v>
+        <v>2783963</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2331478</v>
+        <v>2327201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2521338</v>
+        <v>2516794</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2563477</v>
+        <v>2566525</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2631704</v>
+        <v>2630031</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>5036462</v>
+        <v>5034688</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5299412</v>
+        <v>5294087</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5356798</v>
+        <v>5354263</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>5448488</v>
+        <v>5443205</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2758902</v>
+        <v>2756662</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2842722</v>
+        <v>2838400</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2853080</v>
+        <v>2853359</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2875095</v>
+        <v>2873698</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2431941</v>
+        <v>2433594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2622964</v>
+        <v>2626153</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>2673253</v>
+        <v>2674574</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2728542</v>
+        <v>2723306</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5165601</v>
+        <v>5164965</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5442027</v>
+        <v>5434117</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5496884</v>
+        <v>5497586</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>5572597</v>
+        <v>5577255</v>
       </c>
     </row>
     <row r="24">
